--- a/No-Cor/Reg/results.xlsx
+++ b/No-Cor/Reg/results.xlsx
@@ -468,34 +468,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.27912841438329</v>
+        <v>1.0044118118167</v>
       </c>
       <c r="C2">
-        <v>-6.854400103997772</v>
+        <v>-1.663765130792966</v>
       </c>
       <c r="D2">
-        <v>0.02417972189290923</v>
+        <v>0.205149320636871</v>
       </c>
       <c r="E2">
-        <v>0.6287924535756282</v>
+        <v>4.754992015228786</v>
       </c>
       <c r="F2">
-        <v>1.348611505732887e-236</v>
+        <v>1.737961192307855e-05</v>
       </c>
       <c r="G2">
-        <v>1.648584241366778e-25</v>
+        <v>0.7282973682284216</v>
       </c>
       <c r="H2">
-        <v>0.8129267847420415</v>
+        <v>0.380665828052104</v>
       </c>
       <c r="I2">
-        <v>3.452409848975676</v>
+        <v>5.851378585728954</v>
       </c>
       <c r="J2">
-        <v>-1.814853736848553e-15</v>
+        <v>1.217454321637733e-14</v>
       </c>
       <c r="K2">
-        <v>646</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,34 +503,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.143336917646011</v>
+        <v>1.104180648594092</v>
       </c>
       <c r="C3">
-        <v>-3.862217756864796</v>
+        <v>-1.643308062591759</v>
       </c>
       <c r="D3">
-        <v>0.02732835551010844</v>
+        <v>0.1282127434147739</v>
       </c>
       <c r="E3">
-        <v>0.6986562826403552</v>
+        <v>2.765832160685457</v>
       </c>
       <c r="F3">
-        <v>2.604533228064803e-182</v>
+        <v>2.336198482367286e-09</v>
       </c>
       <c r="G3">
-        <v>4.783136073402623e-08</v>
+        <v>0.5571849410297567</v>
       </c>
       <c r="H3">
-        <v>0.7393694991148736</v>
+        <v>0.7259421860880489</v>
       </c>
       <c r="I3">
-        <v>3.466632267983523</v>
+        <v>3.377526120081327</v>
       </c>
       <c r="J3">
-        <v>-6.88732861803005e-15</v>
+        <v>-2.723747153747051e-15</v>
       </c>
       <c r="K3">
-        <v>619</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -538,34 +538,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.201510494984829</v>
+        <v>1.763124532155738</v>
       </c>
       <c r="C4">
-        <v>-6.009229412499707</v>
+        <v>-17.44113588547562</v>
       </c>
       <c r="D4">
-        <v>0.0338478289315078</v>
+        <v>0.2734058655372659</v>
       </c>
       <c r="E4">
-        <v>0.9112049482120934</v>
+        <v>6.31371674319395</v>
       </c>
       <c r="F4">
-        <v>1.847794974986483e-153</v>
+        <v>1.554158763801481e-07</v>
       </c>
       <c r="G4">
-        <v>8.910368095453872e-11</v>
+        <v>0.008882909693390686</v>
       </c>
       <c r="H4">
-        <v>0.6628208619246089</v>
+        <v>0.529180045017565</v>
       </c>
       <c r="I4">
-        <v>4.147955599134097</v>
+        <v>4.85739455003578</v>
       </c>
       <c r="J4">
-        <v>1.768069015888274e-14</v>
+        <v>-7.925284360401118e-15</v>
       </c>
       <c r="K4">
-        <v>643</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -573,34 +573,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1.242122873702736</v>
+        <v>1.486936761394673</v>
       </c>
       <c r="C5">
-        <v>-7.823129155451066</v>
+        <v>-12.18888249123439</v>
       </c>
       <c r="D5">
-        <v>0.03399115629180492</v>
+        <v>0.2178369606826689</v>
       </c>
       <c r="E5">
-        <v>0.9525041376637384</v>
+        <v>5.167976375962158</v>
       </c>
       <c r="F5">
-        <v>1.353860686521487e-149</v>
+        <v>2.045380335021619e-07</v>
       </c>
       <c r="G5">
-        <v>1.530166523148391e-15</v>
+        <v>0.02556061569622243</v>
       </c>
       <c r="H5">
-        <v>0.7071527624684775</v>
+        <v>0.6246302966024426</v>
       </c>
       <c r="I5">
-        <v>3.437706832972286</v>
+        <v>4.783821989967349</v>
       </c>
       <c r="J5">
-        <v>-1.710423594550439e-14</v>
+        <v>-2.137549396744968e-14</v>
       </c>
       <c r="K5">
-        <v>555</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -608,34 +608,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.415309734857368</v>
+        <v>1.708275139345329</v>
       </c>
       <c r="C6">
-        <v>-10.76344524038338</v>
+        <v>-15.38975200051759</v>
       </c>
       <c r="D6">
-        <v>0.04270512837768712</v>
+        <v>0.24521105710697</v>
       </c>
       <c r="E6">
-        <v>1.150012521345484</v>
+        <v>5.578266690555032</v>
       </c>
       <c r="F6">
-        <v>7.532705086060088e-134</v>
+        <v>1.418164207188524e-07</v>
       </c>
       <c r="G6">
-        <v>1.954250076614461e-19</v>
+        <v>0.01010560478203557</v>
       </c>
       <c r="H6">
-        <v>0.6635163841569943</v>
+        <v>0.6341438957377077</v>
       </c>
       <c r="I6">
-        <v>3.88168463509955</v>
+        <v>4.970147232001758</v>
       </c>
       <c r="J6">
-        <v>6.050417571052016e-15</v>
+        <v>-1.1842378929335e-14</v>
       </c>
       <c r="K6">
-        <v>559</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -643,34 +643,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.345169212180774</v>
+        <v>1.498663714003373</v>
       </c>
       <c r="C7">
-        <v>-8.278760189780522</v>
+        <v>-10.72278843508172</v>
       </c>
       <c r="D7">
-        <v>0.03582754300042802</v>
+        <v>0.2148842711123655</v>
       </c>
       <c r="E7">
-        <v>0.9363269947263968</v>
+        <v>5.045875125624581</v>
       </c>
       <c r="F7">
-        <v>6.555327667048745e-162</v>
+        <v>4.123936309411855e-08</v>
       </c>
       <c r="G7">
-        <v>9.690835172638718e-18</v>
+        <v>0.04071624825824748</v>
       </c>
       <c r="H7">
-        <v>0.694190740561929</v>
+        <v>0.5815430501635944</v>
       </c>
       <c r="I7">
-        <v>4.252475085339781</v>
+        <v>5.675229814870046</v>
       </c>
       <c r="J7">
-        <v>9.489110050600375e-15</v>
+        <v>5.473099451125096e-15</v>
       </c>
       <c r="K7">
-        <v>623</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -678,34 +678,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1.170336945255378</v>
+        <v>1.071060677624773</v>
       </c>
       <c r="C8">
-        <v>-3.378483327532956</v>
+        <v>-0.4346948847588554</v>
       </c>
       <c r="D8">
-        <v>0.02877621163787116</v>
+        <v>0.210545440308236</v>
       </c>
       <c r="E8">
-        <v>0.7329661284242643</v>
+        <v>4.91132860568042</v>
       </c>
       <c r="F8">
-        <v>2.123718328558493e-158</v>
+        <v>1.673343332618078e-05</v>
       </c>
       <c r="G8">
-        <v>5.172330938808082e-06</v>
+        <v>0.9300417606036931</v>
       </c>
       <c r="H8">
-        <v>0.7732662376420423</v>
+        <v>0.4549770928067197</v>
       </c>
       <c r="I8">
-        <v>3.495709792765124</v>
+        <v>5.59253908066523</v>
       </c>
       <c r="J8">
-        <v>-8.710349348024225e-15</v>
+        <v>7.912862284601115e-15</v>
       </c>
       <c r="K8">
-        <v>487</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -713,34 +713,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.125717085263418</v>
+        <v>1.66175486910557</v>
       </c>
       <c r="C9">
-        <v>-2.923249505578911</v>
+        <v>-12.77252199858115</v>
       </c>
       <c r="D9">
-        <v>0.03856675176218653</v>
+        <v>0.1151715475268844</v>
       </c>
       <c r="E9">
-        <v>0.9815815864656324</v>
+        <v>2.461028939341394</v>
       </c>
       <c r="F9">
-        <v>9.833875709675654e-120</v>
+        <v>9.108925829895141e-15</v>
       </c>
       <c r="G9">
-        <v>0.003010117886196219</v>
+        <v>1.4962272989251e-05</v>
       </c>
       <c r="H9">
-        <v>0.5710415127903949</v>
+        <v>0.8777311088258974</v>
       </c>
       <c r="I9">
-        <v>5.361163789319309</v>
+        <v>2.863486121001196</v>
       </c>
       <c r="J9">
-        <v>-2.656234526205982e-15</v>
+        <v>-1.209068687462751e-14</v>
       </c>
       <c r="K9">
-        <v>642</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/No-Cor/Reg/results.xlsx
+++ b/No-Cor/Reg/results.xlsx
@@ -468,34 +468,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.0044118118167</v>
+        <v>1.174437034476609</v>
       </c>
       <c r="C2">
-        <v>-1.663765130792966</v>
+        <v>-3.820608917710134</v>
       </c>
       <c r="D2">
-        <v>0.205149320636871</v>
+        <v>0.01383533758484761</v>
       </c>
       <c r="E2">
-        <v>4.754992015228786</v>
+        <v>0.3121335553179975</v>
       </c>
       <c r="F2">
-        <v>1.737961192307855e-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7282973682284216</v>
+        <v>2.883958458594906e-32</v>
       </c>
       <c r="H2">
-        <v>0.380665828052104</v>
+        <v>0.874617094785566</v>
       </c>
       <c r="I2">
-        <v>5.851378585728954</v>
+        <v>3.446465529938971</v>
       </c>
       <c r="J2">
-        <v>1.217454321637733e-14</v>
+        <v>-1.407355177109377e-14</v>
       </c>
       <c r="K2">
-        <v>41</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,34 +503,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.104180648594092</v>
+        <v>1.11444761042579</v>
       </c>
       <c r="C3">
-        <v>-1.643308062591759</v>
+        <v>-2.989473328999499</v>
       </c>
       <c r="D3">
-        <v>0.1282127434147739</v>
+        <v>0.01568101456106926</v>
       </c>
       <c r="E3">
-        <v>2.765832160685457</v>
+        <v>0.3490895151673853</v>
       </c>
       <c r="F3">
-        <v>2.336198482367286e-09</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5571849410297567</v>
+        <v>3.9410857620688e-17</v>
       </c>
       <c r="H3">
-        <v>0.7259421860880489</v>
+        <v>0.8307545166893965</v>
       </c>
       <c r="I3">
-        <v>3.377526120081327</v>
+        <v>3.524729130825958</v>
       </c>
       <c r="J3">
-        <v>-2.723747153747051e-15</v>
+        <v>1.168846246216421e-14</v>
       </c>
       <c r="K3">
-        <v>30</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -538,34 +538,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.763124532155738</v>
+        <v>1.099797084518694</v>
       </c>
       <c r="C4">
-        <v>-17.44113588547562</v>
+        <v>-3.178141876699287</v>
       </c>
       <c r="D4">
-        <v>0.2734058655372659</v>
+        <v>0.0183317341364989</v>
       </c>
       <c r="E4">
-        <v>6.31371674319395</v>
+        <v>0.4291734904402102</v>
       </c>
       <c r="F4">
-        <v>1.554158763801481e-07</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.008882909693390686</v>
+        <v>2.708797722942366e-13</v>
       </c>
       <c r="H4">
-        <v>0.529180045017565</v>
+        <v>0.7766652926778326</v>
       </c>
       <c r="I4">
-        <v>4.85739455003578</v>
+        <v>4.330301978577632</v>
       </c>
       <c r="J4">
-        <v>-7.925284360401118e-15</v>
+        <v>2.625650687977535e-14</v>
       </c>
       <c r="K4">
-        <v>39</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -573,34 +573,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1.486936761394673</v>
+        <v>1.112843991707752</v>
       </c>
       <c r="C5">
-        <v>-12.18888249123439</v>
+        <v>-4.090832345812087</v>
       </c>
       <c r="D5">
-        <v>0.2178369606826689</v>
+        <v>0.01495658566571337</v>
       </c>
       <c r="E5">
-        <v>5.167976375962158</v>
+        <v>0.3676741405347682</v>
       </c>
       <c r="F5">
-        <v>2.045380335021619e-07</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.02556061569622243</v>
+        <v>2.631266171151702e-27</v>
       </c>
       <c r="H5">
-        <v>0.6246302966024426</v>
+        <v>0.8361298594968598</v>
       </c>
       <c r="I5">
-        <v>4.783821989967349</v>
+        <v>3.523094826418407</v>
       </c>
       <c r="J5">
-        <v>-2.137549396744968e-14</v>
+        <v>9.138350916215455e-15</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -608,34 +608,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.708275139345329</v>
+        <v>1.176558507630624</v>
       </c>
       <c r="C6">
-        <v>-15.38975200051759</v>
+        <v>-3.976824221892961</v>
       </c>
       <c r="D6">
-        <v>0.24521105710697</v>
+        <v>0.01703825149145682</v>
       </c>
       <c r="E6">
-        <v>5.578266690555032</v>
+        <v>0.3962774028778818</v>
       </c>
       <c r="F6">
-        <v>1.418164207188524e-07</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.01010560478203557</v>
+        <v>1.023991325948511e-22</v>
       </c>
       <c r="H6">
-        <v>0.6341438957377077</v>
+        <v>0.8158936334077829</v>
       </c>
       <c r="I6">
-        <v>4.970147232001758</v>
+        <v>3.907314871203506</v>
       </c>
       <c r="J6">
-        <v>-1.1842378929335e-14</v>
+        <v>1.705829870266363e-14</v>
       </c>
       <c r="K6">
-        <v>30</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -643,34 +643,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.498663714003373</v>
+        <v>1.219614365170474</v>
       </c>
       <c r="C7">
-        <v>-10.72278843508172</v>
+        <v>-4.656912389355643</v>
       </c>
       <c r="D7">
-        <v>0.2148842711123655</v>
+        <v>0.02031227281312861</v>
       </c>
       <c r="E7">
-        <v>5.045875125624581</v>
+        <v>0.4656137010230384</v>
       </c>
       <c r="F7">
-        <v>4.123936309411855e-08</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.04071624825824748</v>
+        <v>1.66041635863134e-22</v>
       </c>
       <c r="H7">
-        <v>0.5815430501635944</v>
+        <v>0.7837045324610361</v>
       </c>
       <c r="I7">
-        <v>5.675229814870046</v>
+        <v>4.419506898969251</v>
       </c>
       <c r="J7">
-        <v>5.473099451125096e-15</v>
+        <v>4.2760846685663e-16</v>
       </c>
       <c r="K7">
-        <v>37</v>
+        <v>997</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -678,34 +678,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1.071060677624773</v>
+        <v>1.068442746134074</v>
       </c>
       <c r="C8">
-        <v>-0.4346948847588554</v>
+        <v>-0.6424991007790973</v>
       </c>
       <c r="D8">
-        <v>0.210545440308236</v>
+        <v>0.01507295218724373</v>
       </c>
       <c r="E8">
-        <v>4.91132860568042</v>
+        <v>0.334342504443856</v>
       </c>
       <c r="F8">
-        <v>1.673343332618078e-05</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.9300417606036931</v>
+        <v>0.05500647903070693</v>
       </c>
       <c r="H8">
-        <v>0.4549770928067197</v>
+        <v>0.8644336197950682</v>
       </c>
       <c r="I8">
-        <v>5.59253908066523</v>
+        <v>3.223113065141798</v>
       </c>
       <c r="J8">
-        <v>7.912862284601115e-15</v>
+        <v>1.412091259675136e-15</v>
       </c>
       <c r="K8">
-        <v>33</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -713,34 +713,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.66175486910557</v>
+        <v>1.107730834345226</v>
       </c>
       <c r="C9">
-        <v>-12.77252199858115</v>
+        <v>-2.764929522411111</v>
       </c>
       <c r="D9">
-        <v>0.1151715475268844</v>
+        <v>0.01961420507900099</v>
       </c>
       <c r="E9">
-        <v>2.461028939341394</v>
+        <v>0.4384179208384364</v>
       </c>
       <c r="F9">
-        <v>9.108925829895141e-15</v>
+        <v>1.578938943504622e-317</v>
       </c>
       <c r="G9">
-        <v>1.4962272989251e-05</v>
+        <v>4.22726191307851e-10</v>
       </c>
       <c r="H9">
-        <v>0.8777311088258974</v>
+        <v>0.7560763277210523</v>
       </c>
       <c r="I9">
-        <v>2.863486121001196</v>
+        <v>4.857762171809617</v>
       </c>
       <c r="J9">
-        <v>-1.209068687462751e-14</v>
+        <v>3.302541988130359e-14</v>
       </c>
       <c r="K9">
-        <v>31</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
